--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Mcam</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H2">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.062689485986</v>
+        <v>123.3970183333333</v>
       </c>
       <c r="N2">
-        <v>121.062689485986</v>
+        <v>370.191055</v>
       </c>
       <c r="O2">
-        <v>0.8901818468338436</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="P2">
-        <v>0.8901818468338436</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="Q2">
-        <v>708.7010907586439</v>
+        <v>19.73122436383944</v>
       </c>
       <c r="R2">
-        <v>708.7010907586439</v>
+        <v>177.581019274555</v>
       </c>
       <c r="S2">
-        <v>0.8901818468338436</v>
+        <v>0.02336187531721208</v>
       </c>
       <c r="T2">
-        <v>0.8901818468338436</v>
+        <v>0.02336187531721208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H3">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.71136072652345</v>
+        <v>4.746833</v>
       </c>
       <c r="N3">
-        <v>4.71136072652345</v>
+        <v>14.240499</v>
       </c>
       <c r="O3">
-        <v>0.03464294251551855</v>
+        <v>0.03394113904158701</v>
       </c>
       <c r="P3">
-        <v>0.03464294251551855</v>
+        <v>0.03394113904158702</v>
       </c>
       <c r="Q3">
-        <v>27.5803098379961</v>
+        <v>0.7590201789776666</v>
       </c>
       <c r="R3">
-        <v>27.5803098379961</v>
+        <v>6.831181610799</v>
       </c>
       <c r="S3">
-        <v>0.03464294251551855</v>
+        <v>0.0008986839568365131</v>
       </c>
       <c r="T3">
-        <v>0.03464294251551855</v>
+        <v>0.0008986839568365134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H4">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.736398801961627</v>
+        <v>0.7507536666666667</v>
       </c>
       <c r="N4">
-        <v>0.736398801961627</v>
+        <v>2.252261</v>
       </c>
       <c r="O4">
-        <v>0.00541478839037616</v>
+        <v>0.005368091648961446</v>
       </c>
       <c r="P4">
-        <v>0.00541478839037616</v>
+        <v>0.005368091648961446</v>
       </c>
       <c r="Q4">
-        <v>4.310879234547126</v>
+        <v>0.1200457615512222</v>
       </c>
       <c r="R4">
-        <v>4.310879234547126</v>
+        <v>1.080411853961</v>
       </c>
       <c r="S4">
-        <v>0.00541478839037616</v>
+        <v>0.0001421348245808354</v>
       </c>
       <c r="T4">
-        <v>0.00541478839037616</v>
+        <v>0.0001421348245808354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +723,421 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H5">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>9.487257427842939</v>
+        <v>0.3616873333333333</v>
       </c>
       <c r="N5">
-        <v>9.487257427842939</v>
+        <v>1.085062</v>
       </c>
       <c r="O5">
-        <v>0.0697604222602617</v>
+        <v>0.002586162199143618</v>
       </c>
       <c r="P5">
-        <v>0.0697604222602617</v>
+        <v>0.002586162199143618</v>
       </c>
       <c r="Q5">
-        <v>55.53841332922521</v>
+        <v>0.05783392516244444</v>
       </c>
       <c r="R5">
-        <v>55.53841332922521</v>
+        <v>0.520505326462</v>
       </c>
       <c r="S5">
-        <v>0.0697604222602617</v>
+        <v>6.847567712149277E-05</v>
       </c>
       <c r="T5">
-        <v>0.0697604222602617</v>
+        <v>6.847567712149277E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1599003333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.479701</v>
+      </c>
+      <c r="I6">
+        <v>0.0264777194346773</v>
+      </c>
+      <c r="J6">
+        <v>0.02647771943467731</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.59856033333333</v>
+      </c>
+      <c r="N6">
+        <v>31.795681</v>
+      </c>
+      <c r="O6">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="P6">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="Q6">
+        <v>1.694713330153444</v>
+      </c>
+      <c r="R6">
+        <v>15.252419971381</v>
+      </c>
+      <c r="S6">
+        <v>0.002006549658926386</v>
+      </c>
+      <c r="T6">
+        <v>0.002006549658926386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>123.3970183333333</v>
+      </c>
+      <c r="N7">
+        <v>370.191055</v>
+      </c>
+      <c r="O7">
+        <v>0.8823220358855955</v>
+      </c>
+      <c r="P7">
+        <v>0.8823220358855955</v>
+      </c>
+      <c r="Q7">
+        <v>725.4698271284534</v>
+      </c>
+      <c r="R7">
+        <v>6529.228444156081</v>
+      </c>
+      <c r="S7">
+        <v>0.8589601605683834</v>
+      </c>
+      <c r="T7">
+        <v>0.8589601605683835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.879152</v>
+      </c>
+      <c r="H8">
+        <v>17.637456</v>
+      </c>
+      <c r="I8">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J8">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.746833</v>
+      </c>
+      <c r="N8">
+        <v>14.240499</v>
+      </c>
+      <c r="O8">
+        <v>0.03394113904158701</v>
+      </c>
+      <c r="P8">
+        <v>0.03394113904158702</v>
+      </c>
+      <c r="Q8">
+        <v>27.907352725616</v>
+      </c>
+      <c r="R8">
+        <v>251.166174530544</v>
+      </c>
+      <c r="S8">
+        <v>0.0330424550847505</v>
+      </c>
+      <c r="T8">
+        <v>0.03304245508475051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.879152</v>
+      </c>
+      <c r="H9">
+        <v>17.637456</v>
+      </c>
+      <c r="I9">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J9">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7507536666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.252261</v>
+      </c>
+      <c r="O9">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="P9">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="Q9">
+        <v>4.413794920890667</v>
+      </c>
+      <c r="R9">
+        <v>39.724154288016</v>
+      </c>
+      <c r="S9">
+        <v>0.00522595682438061</v>
+      </c>
+      <c r="T9">
+        <v>0.00522595682438061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.879152</v>
+      </c>
+      <c r="H10">
+        <v>17.637456</v>
+      </c>
+      <c r="I10">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J10">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3616873333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.085062</v>
+      </c>
+      <c r="O10">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="P10">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="Q10">
+        <v>2.126414809141334</v>
+      </c>
+      <c r="R10">
+        <v>19.137733282272</v>
+      </c>
+      <c r="S10">
+        <v>0.002517686522022125</v>
+      </c>
+      <c r="T10">
+        <v>0.002517686522022125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.879152</v>
+      </c>
+      <c r="H11">
+        <v>17.637456</v>
+      </c>
+      <c r="I11">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J11">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.59856033333333</v>
+      </c>
+      <c r="N11">
+        <v>31.795681</v>
+      </c>
+      <c r="O11">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="P11">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="Q11">
+        <v>62.31054718083734</v>
+      </c>
+      <c r="R11">
+        <v>560.794924627536</v>
+      </c>
+      <c r="S11">
+        <v>0.07377602156578607</v>
+      </c>
+      <c r="T11">
+        <v>0.07377602156578608</v>
       </c>
     </row>
   </sheetData>
